--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/资产总计.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/资产总计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>118.5755</v>
-      </c>
-      <c r="C2" t="n">
-        <v>179.02359</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23.62642</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.07521</v>
-      </c>
-      <c r="F2" t="n">
-        <v>53.86256</v>
-      </c>
-      <c r="G2" t="n">
-        <v>211.95537</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10.93042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>91.96751999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>32.56152</v>
-      </c>
-      <c r="K2" t="n">
-        <v>140.90873</v>
-      </c>
-      <c r="L2" t="n">
-        <v>49.48078</v>
-      </c>
-      <c r="M2" t="n">
-        <v>37.27349</v>
-      </c>
-      <c r="N2" t="n">
-        <v>207.12131</v>
-      </c>
-      <c r="O2" t="n">
-        <v>119.96614</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20.64811</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>174.70695</v>
-      </c>
-      <c r="R2" t="n">
-        <v>75.19970000000001</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>32.77656</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.60224</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.50943</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.41394</v>
-      </c>
-      <c r="X2" t="n">
-        <v>30.09864</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>100.64796</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>249.79301</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>75.19412</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>47.03912</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.87458</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3873.83</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>316.7681</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.7921899999999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>98.99811</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>212.82391</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>375.63734</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>20.25853</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>92.00975</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>178.84166</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>97.01137</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>360.78422</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>15.06913</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>180.99581</v>
-      </c>
-      <c r="C3" t="n">
-        <v>281.71416</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.55924</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.26736</v>
-      </c>
-      <c r="F3" t="n">
-        <v>102.51235</v>
-      </c>
-      <c r="G3" t="n">
-        <v>377.03873</v>
-      </c>
-      <c r="H3" t="n">
-        <v>48.55961</v>
-      </c>
-      <c r="I3" t="n">
-        <v>143.75645</v>
-      </c>
-      <c r="J3" t="n">
-        <v>61.9068</v>
-      </c>
-      <c r="K3" t="n">
-        <v>214.43154</v>
-      </c>
-      <c r="L3" t="n">
-        <v>65.10908999999999</v>
-      </c>
-      <c r="M3" t="n">
-        <v>65.56946000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>362.73585</v>
-      </c>
-      <c r="O3" t="n">
-        <v>181.12096</v>
-      </c>
-      <c r="P3" t="n">
-        <v>23.87687</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>247.48749</v>
-      </c>
-      <c r="R3" t="n">
-        <v>118.13246</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.02357</v>
-      </c>
-      <c r="T3" t="n">
-        <v>54.58479</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.65103</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4.23665</v>
-      </c>
-      <c r="W3" t="n">
-        <v>35.42296</v>
-      </c>
-      <c r="X3" t="n">
-        <v>41.71874</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>151.44294</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>386.21383</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>126.75014</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>71.37638</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.08767</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5901.98</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>614.01564</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.12386</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>181.8881</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>344.08821</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>543.87242</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>25.4648</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>141.97843</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>297.97822</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>126.9848</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>204.29974</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>23.99694</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>285.23181</v>
-      </c>
-      <c r="C4" t="n">
-        <v>412.96748</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.46295</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.49263</v>
-      </c>
-      <c r="F4" t="n">
-        <v>134.92583</v>
-      </c>
-      <c r="G4" t="n">
-        <v>553.8091899999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>71.68022000000001</v>
-      </c>
-      <c r="I4" t="n">
-        <v>210.93932</v>
-      </c>
-      <c r="J4" t="n">
-        <v>93.72906999999999</v>
-      </c>
-      <c r="K4" t="n">
-        <v>337.41526</v>
-      </c>
-      <c r="L4" t="n">
-        <v>87.09807000000001</v>
-      </c>
-      <c r="M4" t="n">
-        <v>90.44426</v>
-      </c>
-      <c r="N4" t="n">
-        <v>540.57672</v>
-      </c>
-      <c r="O4" t="n">
-        <v>245.81239</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32.04132</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>346.51833</v>
-      </c>
-      <c r="R4" t="n">
-        <v>159.30089</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>75.74122</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.31757</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.42107</v>
-      </c>
-      <c r="W4" t="n">
-        <v>66.64906999999999</v>
-      </c>
-      <c r="X4" t="n">
-        <v>53.04172</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>226.98017</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>570.21263</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>172.55127</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>152.29782</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>8759.620000000001</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>991.84066</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7.79633</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>255.34641</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>509.11476</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>761.3210800000001</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>42.4039</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>205.32632</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>436.29465</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>157.15276</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>362.72571</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>40.63427</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
